--- a/G2A223長谷川沙羅/設計書/テーブル定義書.xlsx
+++ b/G2A223長谷川沙羅/設計書/テーブル定義書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s20217003\Desktop\20217003\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s20217003\Documents\HCSSportsForm\G2A223長谷川沙羅\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2FFB51-44A8-41A5-A5C8-AD246C5DBEC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC130147-E361-4696-8560-99508260DA52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9828" yWindow="0" windowWidth="10548" windowHeight="8760" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
   <si>
     <t>説明／備考</t>
   </si>
@@ -321,10 +321,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>○</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -339,29 +335,6 @@
     <t>address</t>
   </si>
   <si>
-    <t>登録した顧客情報を管理するマスターテーブル</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>顧客情報テーブル</t>
-    <rPh sb="0" eb="2">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>電話番号</t>
     <rPh sb="0" eb="4">
       <t>デンワバンゴウ</t>
@@ -402,10 +375,6 @@
     <t>telephone</t>
   </si>
   <si>
-    <t>member</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>member_idからidNoに変更</t>
     <rPh sb="16" eb="18">
       <t>ヘンコウ</t>
@@ -474,7 +443,87 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>sportsForm.db</t>
+    <t>学籍番号</t>
+    <rPh sb="0" eb="4">
+      <t>ガクセキバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>schoolID</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>１月付近から追加</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フキン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Member</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>全部修正</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>member→Member、SchoolID追加</t>
+    <rPh sb="22" eb="24">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>長谷川沙羅</t>
+    <rPh sb="0" eb="5">
+      <t>ハセガワサラ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>WindowsFormsApp1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Member</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>会員情報テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>登録した会員情報を管理するテーブル</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -1258,7 +1307,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1314,9 +1363,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1342,9 +1388,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1411,8 +1454,77 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1453,23 +1565,65 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1477,36 +1631,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1525,55 +1649,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1581,62 +1670,53 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1993,7 +2073,7 @@
   <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E5"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -2010,36 +2090,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="58"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="79"/>
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="62"/>
-      <c r="K1" s="63"/>
+      <c r="J1" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="32" t="s">
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
+      <c r="J2" s="85">
+        <v>44859</v>
+      </c>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" customHeight="1">
       <c r="A3" s="4"/>
@@ -2052,7 +2136,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="33"/>
+      <c r="K3" s="31"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -2072,22 +2156,22 @@
       <c r="C4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="53" t="s">
+      <c r="E4" s="75"/>
+      <c r="F4" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="53" t="s">
+      <c r="G4" s="75"/>
+      <c r="H4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="53" t="s">
+      <c r="I4" s="75"/>
+      <c r="J4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="54"/>
+      <c r="K4" s="75"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2097,293 +2181,301 @@
       <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="22.5" customHeight="1">
-      <c r="A5" s="34">
+      <c r="A5" s="32">
         <v>1</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="33">
         <v>44859</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52" t="s">
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
     </row>
     <row r="6" spans="1:19" ht="28.8" customHeight="1">
-      <c r="A6" s="34">
+      <c r="A6" s="32">
         <v>2</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="33">
         <v>44908</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="126" t="s">
+      <c r="D6" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="64"/>
+      <c r="J6" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="65"/>
+    </row>
+    <row r="7" spans="1:19" ht="76.2" customHeight="1">
+      <c r="A7" s="32">
+        <v>3</v>
+      </c>
+      <c r="B7" s="33">
+        <v>44952</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="126"/>
-    </row>
-    <row r="7" spans="1:19" ht="22.5" customHeight="1">
-      <c r="A7" s="34">
-        <v>3</v>
-      </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="34" t="s">
+      <c r="E7" s="64"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="65"/>
+    </row>
+    <row r="8" spans="1:19" ht="22.5" customHeight="1">
+      <c r="A8" s="32">
+        <v>4</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-    </row>
-    <row r="8" spans="1:19" ht="22.5" customHeight="1">
-      <c r="A8" s="34">
-        <v>4</v>
-      </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="34" t="s">
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+    </row>
+    <row r="9" spans="1:19" ht="22.5" customHeight="1">
+      <c r="A9" s="32">
+        <v>5</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-    </row>
-    <row r="9" spans="1:19" ht="22.5" customHeight="1">
-      <c r="A9" s="34">
-        <v>5</v>
-      </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="34" t="s">
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+    </row>
+    <row r="10" spans="1:19" ht="22.5" customHeight="1">
+      <c r="A10" s="32">
+        <v>6</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-    </row>
-    <row r="10" spans="1:19" ht="22.5" customHeight="1">
-      <c r="A10" s="34">
-        <v>6</v>
-      </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="34" t="s">
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+    </row>
+    <row r="11" spans="1:19" ht="22.5" customHeight="1">
+      <c r="A11" s="32">
+        <v>7</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-    </row>
-    <row r="11" spans="1:19" ht="22.5" customHeight="1">
-      <c r="A11" s="34">
-        <v>7</v>
-      </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="34" t="s">
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+    </row>
+    <row r="12" spans="1:19" ht="22.5" customHeight="1">
+      <c r="A12" s="32">
+        <v>8</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="126"/>
-    </row>
-    <row r="12" spans="1:19" ht="22.5" customHeight="1">
-      <c r="A12" s="34">
-        <v>8</v>
-      </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="34" t="s">
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+    </row>
+    <row r="13" spans="1:19" ht="22.5" customHeight="1">
+      <c r="A13" s="32">
+        <v>9</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="126"/>
-    </row>
-    <row r="13" spans="1:19" ht="22.5" customHeight="1">
-      <c r="A13" s="34">
-        <v>9</v>
-      </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="34" t="s">
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+    </row>
+    <row r="14" spans="1:19" ht="22.5" customHeight="1">
+      <c r="A14" s="32">
+        <v>10</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="126"/>
-    </row>
-    <row r="14" spans="1:19" ht="22.5" customHeight="1">
-      <c r="A14" s="34">
-        <v>10</v>
-      </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="34" t="s">
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+    </row>
+    <row r="15" spans="1:19" ht="22.5" customHeight="1">
+      <c r="A15" s="32">
+        <v>11</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="126"/>
-      <c r="K14" s="126"/>
-    </row>
-    <row r="15" spans="1:19" ht="22.5" customHeight="1">
-      <c r="A15" s="34">
-        <v>11</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="34" t="s">
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+    </row>
+    <row r="16" spans="1:19" ht="22.5" customHeight="1">
+      <c r="A16" s="32">
+        <v>12</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="126"/>
-      <c r="K15" s="126"/>
-    </row>
-    <row r="16" spans="1:19" ht="22.5" customHeight="1">
-      <c r="A16" s="34">
-        <v>12</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="34" t="s">
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+    </row>
+    <row r="17" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A17" s="32">
+        <v>13</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="126"/>
-      <c r="K16" s="126"/>
-    </row>
-    <row r="17" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A17" s="34">
-        <v>13</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="34" t="s">
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+    </row>
+    <row r="18" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A18" s="32">
+        <v>14</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="126"/>
-      <c r="K17" s="126"/>
-    </row>
-    <row r="18" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A18" s="34">
-        <v>14</v>
-      </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="34" t="s">
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+    </row>
+    <row r="19" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A19" s="32">
+        <v>15</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="126"/>
-      <c r="K18" s="126"/>
-    </row>
-    <row r="19" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A19" s="34">
-        <v>15</v>
-      </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="126"/>
-      <c r="K19" s="126"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
     </row>
     <row r="20" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="42"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="66"/>
       <c r="E20" s="67"/>
       <c r="F20" s="68"/>
       <c r="G20" s="69"/>
       <c r="H20" s="70"/>
       <c r="I20" s="71"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="128"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="73"/>
     </row>
     <row r="21" spans="1:11" ht="22.5" customHeight="1">
-      <c r="C21" s="36"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="38"/>
+      <c r="C21" s="34"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="36"/>
     </row>
     <row r="22" spans="1:11" ht="22.5" customHeight="1"/>
     <row r="23" spans="1:11" ht="22.5" customHeight="1"/>
@@ -2411,6 +2503,70 @@
     <row r="45" ht="22.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
@@ -2419,70 +2575,6 @@
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2495,15 +2587,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6:R6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.109375" style="12" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" style="31" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="16" customWidth="1"/>
     <col min="5" max="6" width="5.44140625" style="16" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" style="16" customWidth="1"/>
@@ -2522,118 +2614,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="11" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="47" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91" t="s">
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="48" t="s">
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="93" t="s">
+      <c r="N1" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="93"/>
-      <c r="P1" s="50" t="s">
+      <c r="O1" s="90"/>
+      <c r="P1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="92">
+      <c r="Q1" s="89">
         <v>44865</v>
       </c>
-      <c r="R1" s="93"/>
+      <c r="R1" s="90"/>
     </row>
     <row r="2" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="49" t="s">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="97">
+      <c r="N2" s="94">
         <v>44865</v>
       </c>
-      <c r="O2" s="97"/>
-      <c r="P2" s="49" t="s">
+      <c r="O2" s="94"/>
+      <c r="P2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="95">
+      <c r="Q2" s="92">
         <v>44867</v>
       </c>
-      <c r="R2" s="94"/>
+      <c r="R2" s="91"/>
     </row>
     <row r="3" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="86" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
     </row>
     <row r="4" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A4" s="76"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
     </row>
     <row r="5" spans="1:18" ht="20.25" customHeight="1">
       <c r="B5" s="13"/>
@@ -2643,492 +2735,528 @@
       <c r="N5" s="17"/>
     </row>
     <row r="6" spans="1:18" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="87" t="s">
+      <c r="E6" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="88"/>
-      <c r="G6" s="45" t="s">
+      <c r="F6" s="113"/>
+      <c r="G6" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="45" t="s">
+      <c r="K6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="78" t="s">
+      <c r="L6" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="79"/>
-      <c r="N6" s="44" t="s">
+      <c r="M6" s="102"/>
+      <c r="N6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="44" t="s">
+      <c r="O6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="46" t="s">
+      <c r="P6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="89" t="s">
-        <v>54</v>
-      </c>
-      <c r="R6" s="89"/>
-    </row>
-    <row r="7" spans="1:18" s="26" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
+      <c r="Q6" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" s="114"/>
+    </row>
+    <row r="7" spans="1:18" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
       <c r="A7" s="18">
         <v>1</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="125" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="21">
+        <v>8</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="104"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="22">
+      <c r="R7" s="116"/>
+    </row>
+    <row r="8" spans="1:18" s="25" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A8" s="26">
+        <v>2</v>
+      </c>
+      <c r="B8" s="133" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="125" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="21">
+        <v>20</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="106"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="118" t="s">
+        <v>58</v>
+      </c>
+      <c r="R8" s="119"/>
+    </row>
+    <row r="9" spans="1:18" s="25" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A9" s="27">
+        <v>3</v>
+      </c>
+      <c r="B9" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="125" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="21">
+        <v>20</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="110"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="118" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" s="119"/>
+    </row>
+    <row r="10" spans="1:18" s="25" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A10" s="27">
+        <v>4</v>
+      </c>
+      <c r="B10" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="125" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="21">
+        <v>11</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="106"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="118" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10" s="119"/>
+    </row>
+    <row r="11" spans="1:18" s="25" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A11" s="27">
+        <v>5</v>
+      </c>
+      <c r="B11" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="125" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="21">
+        <v>100</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="105" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="106"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="118" t="s">
+        <v>60</v>
+      </c>
+      <c r="R11" s="119"/>
+    </row>
+    <row r="12" spans="1:18" s="25" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A12" s="27">
+        <v>6</v>
+      </c>
+      <c r="B12" s="124" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="124" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="127" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="132">
+        <v>20</v>
+      </c>
+      <c r="F12" s="132">
+        <v>0</v>
+      </c>
+      <c r="G12" s="130" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="131" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="130" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="131"/>
+      <c r="K12" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="134" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="135"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="118" t="s">
+        <v>67</v>
+      </c>
+      <c r="R12" s="119"/>
+    </row>
+    <row r="13" spans="1:18" s="25" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A13" s="27">
+        <v>7</v>
+      </c>
+      <c r="B13" s="128"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="119"/>
+    </row>
+    <row r="14" spans="1:18" s="25" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A14" s="27">
         <v>8</v>
       </c>
-      <c r="F7" s="23">
-        <v>0</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="81"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="120" t="s">
-        <v>61</v>
-      </c>
-      <c r="R7" s="121"/>
-    </row>
-    <row r="8" spans="1:18" s="26" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A8" s="27">
-        <v>2</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="22">
-        <v>20</v>
-      </c>
-      <c r="F8" s="23">
-        <v>0</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="83"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="122" t="s">
-        <v>62</v>
-      </c>
-      <c r="R8" s="123"/>
-    </row>
-    <row r="9" spans="1:18" s="26" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A9" s="28">
-        <v>3</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="22">
-        <v>20</v>
-      </c>
-      <c r="F9" s="23">
-        <v>0</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="85"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="122" t="s">
-        <v>63</v>
-      </c>
-      <c r="R9" s="123"/>
-    </row>
-    <row r="10" spans="1:18" s="26" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A10" s="28">
-        <v>4</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="22">
-        <v>11</v>
-      </c>
-      <c r="F10" s="23">
-        <v>0</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" s="83"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="122" t="s">
-        <v>65</v>
-      </c>
-      <c r="R10" s="123"/>
-    </row>
-    <row r="11" spans="1:18" s="26" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A11" s="28">
-        <v>5</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="22">
-        <v>100</v>
-      </c>
-      <c r="F11" s="23">
-        <v>0</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" s="83"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="122" t="s">
-        <v>64</v>
-      </c>
-      <c r="R11" s="123"/>
-    </row>
-    <row r="12" spans="1:18" s="26" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A12" s="28">
-        <v>6</v>
-      </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="H12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="122"/>
-      <c r="R12" s="123"/>
-    </row>
-    <row r="13" spans="1:18" s="26" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A13" s="28">
-        <v>7</v>
-      </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="122"/>
-      <c r="R13" s="123"/>
-    </row>
-    <row r="14" spans="1:18" s="26" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A14" s="28">
-        <v>8</v>
-      </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
       <c r="J14" s="20"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="122"/>
-      <c r="R14" s="123"/>
-    </row>
-    <row r="15" spans="1:18" s="26" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A15" s="28">
+      <c r="K14" s="20"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="118"/>
+      <c r="R14" s="119"/>
+    </row>
+    <row r="15" spans="1:18" s="25" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A15" s="27">
         <v>9</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
       <c r="J15" s="20"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="122"/>
-      <c r="R15" s="123"/>
-    </row>
-    <row r="16" spans="1:18" s="26" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A16" s="110">
+      <c r="K15" s="20"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="118"/>
+      <c r="R15" s="119"/>
+    </row>
+    <row r="16" spans="1:18" s="25" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A16" s="57">
         <v>10</v>
       </c>
-      <c r="B16" s="111"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="116"/>
-      <c r="M16" s="117"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="112"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="124"/>
-      <c r="R16" s="125"/>
-    </row>
-    <row r="17" spans="1:18" s="26" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="101"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="103"/>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="108"/>
-      <c r="R17" s="108"/>
-    </row>
-    <row r="18" spans="1:18" s="26" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A18" s="101"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="106"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="103"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="108"/>
-    </row>
-    <row r="19" spans="1:18" s="26" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A19" s="101"/>
-      <c r="B19" s="102"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="103"/>
-      <c r="O19" s="103"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="108"/>
-    </row>
-    <row r="20" spans="1:18" s="26" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A20" s="101"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="104"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="103"/>
-      <c r="P20" s="107"/>
-      <c r="Q20" s="108"/>
-      <c r="R20" s="108"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="122"/>
+      <c r="R16" s="123"/>
+    </row>
+    <row r="17" spans="1:18" s="25" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A17" s="51"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="120"/>
+      <c r="R17" s="120"/>
+    </row>
+    <row r="18" spans="1:18" s="25" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A18" s="51"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="120"/>
+      <c r="R18" s="120"/>
+    </row>
+    <row r="19" spans="1:18" s="25" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="120"/>
+      <c r="R19" s="120"/>
+    </row>
+    <row r="20" spans="1:18" s="25" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="120"/>
+      <c r="R20" s="120"/>
     </row>
     <row r="21" spans="1:18" ht="31.5" customHeight="1">
-      <c r="A21" s="101"/>
-      <c r="B21" s="102"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="104"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="103"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="109"/>
-      <c r="R21" s="109"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="121"/>
+      <c r="R21" s="121"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
+  <mergeCells count="44">
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="L6:M6"/>
@@ -3144,25 +3272,16 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
     <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/G2A223長谷川沙羅/設計書/テーブル定義書.xlsx
+++ b/G2A223長谷川沙羅/設計書/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s20217003\Documents\HCSSportsForm\G2A223長谷川沙羅\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC130147-E361-4696-8560-99508260DA52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0491E7A9-2B73-4344-BC8D-0F2D3D32AA5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9828" yWindow="0" windowWidth="10548" windowHeight="8760" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9828" yWindow="0" windowWidth="10548" windowHeight="8760" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="117" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
   <si>
     <t>説明／備考</t>
   </si>
@@ -523,6 +523,10 @@
     <rPh sb="6" eb="8">
       <t>ジョウホウ</t>
     </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>AUTOINCREMENT</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -631,18 +635,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -651,51 +655,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
@@ -809,21 +768,6 @@
       <right style="hair">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
       <top style="hair">
         <color indexed="64"/>
       </top>
@@ -833,41 +777,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="hair">
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
@@ -882,19 +798,6 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -965,19 +868,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="hair">
         <color indexed="64"/>
@@ -1132,168 +1022,487 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1303,36 +1512,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1360,101 +1560,65 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1475,247 +1639,331 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="63" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="62" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="64" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="65" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2072,410 +2320,386 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13" style="9" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" style="2" customWidth="1"/>
-    <col min="5" max="7" width="13.21875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" style="3" customWidth="1"/>
-    <col min="9" max="10" width="13.77734375" style="10" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="6.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="1" customWidth="1"/>
+    <col min="5" max="7" width="13.21875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" style="2" customWidth="1"/>
+    <col min="9" max="10" width="13.77734375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A1" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="1" t="s">
+      <c r="B1" s="140"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="J1" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="84"/>
+      <c r="K1" s="60"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="30" t="s">
+      <c r="A2" s="140"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="85">
+      <c r="J2" s="61">
         <v>44859</v>
       </c>
-      <c r="K2" s="86"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-    </row>
-    <row r="4" spans="1:19" ht="22.5" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+    </row>
+    <row r="4" spans="1:19" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A4" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="74" t="s">
+      <c r="E4" s="150"/>
+      <c r="F4" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="74" t="s">
+      <c r="G4" s="150"/>
+      <c r="H4" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="75"/>
-      <c r="J4" s="74" t="s">
+      <c r="I4" s="150"/>
+      <c r="J4" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="75"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" ht="22.5" customHeight="1">
-      <c r="A5" s="32">
+      <c r="K4" s="150"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" ht="22.5" customHeight="1" thickTop="1">
+      <c r="A5" s="143">
         <v>1</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="144">
         <v>44859</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64" t="s">
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="64"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
     </row>
     <row r="6" spans="1:19" ht="28.8" customHeight="1">
-      <c r="A6" s="32">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="26">
         <v>44908</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64" t="s">
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65" t="s">
+      <c r="I6" s="52"/>
+      <c r="J6" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="65"/>
+      <c r="K6" s="51"/>
     </row>
     <row r="7" spans="1:19" ht="76.2" customHeight="1">
-      <c r="A7" s="32">
+      <c r="A7" s="25">
         <v>3</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="26">
         <v>44952</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="64" t="s">
+      <c r="E7" s="52"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65" t="s">
+      <c r="I7" s="52"/>
+      <c r="J7" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="65"/>
+      <c r="K7" s="51"/>
     </row>
     <row r="8" spans="1:19" ht="22.5" customHeight="1">
-      <c r="A8" s="32">
+      <c r="A8" s="25">
         <v>4</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="64"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
     </row>
     <row r="9" spans="1:19" ht="22.5" customHeight="1">
-      <c r="A9" s="32">
+      <c r="A9" s="25">
         <v>5</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
     </row>
     <row r="10" spans="1:19" ht="22.5" customHeight="1">
-      <c r="A10" s="32">
+      <c r="A10" s="25">
         <v>6</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
     </row>
     <row r="11" spans="1:19" ht="22.5" customHeight="1">
-      <c r="A11" s="32">
+      <c r="A11" s="25">
         <v>7</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
     </row>
     <row r="12" spans="1:19" ht="22.5" customHeight="1">
-      <c r="A12" s="32">
+      <c r="A12" s="25">
         <v>8</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
     </row>
     <row r="13" spans="1:19" ht="22.5" customHeight="1">
-      <c r="A13" s="32">
+      <c r="A13" s="25">
         <v>9</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:19" ht="22.5" customHeight="1">
-      <c r="A14" s="32">
+      <c r="A14" s="25">
         <v>10</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
     </row>
     <row r="15" spans="1:19" ht="22.5" customHeight="1">
-      <c r="A15" s="32">
+      <c r="A15" s="25">
         <v>11</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
     </row>
     <row r="16" spans="1:19" ht="22.5" customHeight="1">
-      <c r="A16" s="32">
+      <c r="A16" s="25">
         <v>12</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
     </row>
     <row r="17" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A17" s="32">
+      <c r="A17" s="25">
         <v>13</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
     </row>
     <row r="18" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A18" s="32">
+      <c r="A18" s="25">
         <v>14</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
     </row>
     <row r="19" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A19" s="32">
+      <c r="A19" s="25">
         <v>15</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
     </row>
     <row r="20" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="73"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="72"/>
     </row>
     <row r="21" spans="1:11" ht="22.5" customHeight="1">
-      <c r="C21" s="34"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="36"/>
+      <c r="C21" s="27"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
     </row>
     <row r="22" spans="1:11" ht="22.5" customHeight="1"/>
     <row r="23" spans="1:11" ht="22.5" customHeight="1"/>
@@ -2503,6 +2727,70 @@
     <row r="45" ht="22.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
@@ -2511,70 +2799,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2587,72 +2811,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11:R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="16" customWidth="1"/>
-    <col min="5" max="6" width="5.44140625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="6" style="16" customWidth="1"/>
-    <col min="9" max="9" width="6.21875" style="16" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="16" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" style="16" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" style="16" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="12" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="12" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="12" customWidth="1"/>
-    <col min="16" max="16" width="9.77734375" style="12" customWidth="1"/>
-    <col min="17" max="17" width="9" style="12"/>
-    <col min="18" max="18" width="11.88671875" style="12" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="4.109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="13" customWidth="1"/>
+    <col min="5" max="6" width="5.44140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="6" style="13" customWidth="1"/>
+    <col min="9" max="9" width="6.21875" style="13" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="13" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" style="13" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" style="13" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="9" customWidth="1"/>
+    <col min="16" max="16" width="9.77734375" style="9" customWidth="1"/>
+    <col min="17" max="17" width="9" style="9"/>
+    <col min="18" max="18" width="11.88671875" style="9" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="11" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:18" s="8" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A1" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88" t="s">
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="46" t="s">
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="90" t="s">
+      <c r="N1" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="90"/>
-      <c r="P1" s="48" t="s">
+      <c r="O1" s="100"/>
+      <c r="P1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="89">
+      <c r="Q1" s="102">
         <v>44865</v>
       </c>
-      <c r="R1" s="90"/>
+      <c r="R1" s="103"/>
     </row>
     <row r="2" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="49" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="42" t="s">
         <v>72</v>
       </c>
       <c r="D2" s="91" t="s">
@@ -2668,576 +2892,607 @@
       <c r="J2" s="93"/>
       <c r="K2" s="93"/>
       <c r="L2" s="93"/>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="34" t="s">
         <v>31</v>
       </c>
       <c r="N2" s="94">
         <v>44865</v>
       </c>
       <c r="O2" s="94"/>
-      <c r="P2" s="47" t="s">
+      <c r="P2" s="34" t="s">
         <v>12</v>
       </c>
       <c r="Q2" s="92">
-        <v>44867</v>
-      </c>
-      <c r="R2" s="91"/>
+        <v>44953</v>
+      </c>
+      <c r="R2" s="105"/>
     </row>
     <row r="3" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="111" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111"/>
-    </row>
-    <row r="4" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A4" s="99"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="107"/>
+    </row>
+    <row r="4" spans="1:18" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110"/>
       <c r="R4" s="111"/>
     </row>
-    <row r="5" spans="1:18" ht="20.25" customHeight="1">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
+    <row r="5" spans="1:18" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
     </row>
     <row r="6" spans="1:18" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="112" t="s">
+      <c r="E6" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="113"/>
-      <c r="G6" s="43" t="s">
+      <c r="F6" s="115"/>
+      <c r="G6" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="43" t="s">
+      <c r="K6" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="101" t="s">
+      <c r="L6" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="102"/>
-      <c r="N6" s="42" t="s">
+      <c r="M6" s="118"/>
+      <c r="N6" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="42" t="s">
+      <c r="O6" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="44" t="s">
+      <c r="P6" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="114" t="s">
+      <c r="Q6" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="R6" s="114"/>
-    </row>
-    <row r="7" spans="1:18" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
-      <c r="A7" s="18">
+      <c r="R6" s="121"/>
+    </row>
+    <row r="7" spans="1:18" s="21" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
+      <c r="A7" s="122">
         <v>1</v>
       </c>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="17">
         <v>8</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="18">
         <v>0</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20" t="s">
+      <c r="J7" s="16"/>
+      <c r="K7" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="103" t="s">
+      <c r="L7" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="104"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="115" t="s">
+      <c r="M7" s="81"/>
+      <c r="N7" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="R7" s="116"/>
-    </row>
-    <row r="8" spans="1:18" s="25" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A8" s="26">
+      <c r="R7" s="123"/>
+    </row>
+    <row r="8" spans="1:18" s="21" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A8" s="124">
         <v>2</v>
       </c>
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="17">
         <v>20</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="18">
         <v>0</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20" t="s">
+      <c r="J8" s="16"/>
+      <c r="K8" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="105" t="s">
+      <c r="L8" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="106"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="118" t="s">
+      <c r="M8" s="83"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="R8" s="119"/>
-    </row>
-    <row r="9" spans="1:18" s="25" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A9" s="27">
+      <c r="R8" s="125"/>
+    </row>
+    <row r="9" spans="1:18" s="21" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A9" s="126">
         <v>3</v>
       </c>
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="17">
         <v>20</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="18">
         <v>0</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20" t="s">
+      <c r="J9" s="16"/>
+      <c r="K9" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="109" t="s">
+      <c r="L9" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="110"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="118" t="s">
+      <c r="M9" s="87"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="R9" s="119"/>
-    </row>
-    <row r="10" spans="1:18" s="25" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A10" s="27">
+      <c r="R9" s="125"/>
+    </row>
+    <row r="10" spans="1:18" s="21" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A10" s="126">
         <v>4</v>
       </c>
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="125" t="s">
+      <c r="C10" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="17">
         <v>11</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="18">
         <v>0</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20" t="s">
+      <c r="J10" s="16"/>
+      <c r="K10" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="L10" s="105" t="s">
+      <c r="L10" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="106"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="118" t="s">
+      <c r="M10" s="83"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="119"/>
-    </row>
-    <row r="11" spans="1:18" s="25" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A11" s="27">
+      <c r="R10" s="125"/>
+    </row>
+    <row r="11" spans="1:18" s="21" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A11" s="126">
         <v>5</v>
       </c>
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="17">
         <v>100</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="18">
         <v>0</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20" t="s">
+      <c r="J11" s="16"/>
+      <c r="K11" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="L11" s="105" t="s">
+      <c r="L11" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="M11" s="106"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="118" t="s">
+      <c r="M11" s="83"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="R11" s="119"/>
-    </row>
-    <row r="12" spans="1:18" s="25" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A12" s="27">
+      <c r="R11" s="125"/>
+    </row>
+    <row r="12" spans="1:18" s="21" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A12" s="126">
         <v>6</v>
       </c>
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="124" t="s">
+      <c r="C12" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="127" t="s">
+      <c r="D12" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="132">
+      <c r="E12" s="49">
         <v>20</v>
       </c>
-      <c r="F12" s="132">
+      <c r="F12" s="49">
         <v>0</v>
       </c>
-      <c r="G12" s="130" t="s">
+      <c r="G12" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="131" t="s">
+      <c r="H12" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="130" t="s">
+      <c r="I12" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="131"/>
-      <c r="K12" s="131" t="s">
+      <c r="J12" s="48"/>
+      <c r="K12" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="134" t="s">
+      <c r="L12" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="M12" s="135"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="118" t="s">
+      <c r="M12" s="74"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="R12" s="119"/>
-    </row>
-    <row r="13" spans="1:18" s="25" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A13" s="27">
+      <c r="R12" s="125"/>
+    </row>
+    <row r="13" spans="1:18" s="21" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A13" s="126">
         <v>7</v>
       </c>
-      <c r="B13" s="128"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="119"/>
-    </row>
-    <row r="14" spans="1:18" s="25" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A14" s="27">
+      <c r="B13" s="46"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="125"/>
+    </row>
+    <row r="14" spans="1:18" s="21" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A14" s="126">
         <v>8</v>
       </c>
-      <c r="B14" s="128"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="119"/>
-    </row>
-    <row r="15" spans="1:18" s="25" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A15" s="27">
+      <c r="B14" s="46"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="125"/>
+    </row>
+    <row r="15" spans="1:18" s="21" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A15" s="126">
         <v>9</v>
       </c>
-      <c r="B15" s="128"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="108"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="118"/>
-      <c r="R15" s="119"/>
-    </row>
-    <row r="16" spans="1:18" s="25" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A16" s="57">
+      <c r="B15" s="46"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="125"/>
+    </row>
+    <row r="16" spans="1:18" s="21" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A16" s="127">
         <v>10</v>
       </c>
-      <c r="B16" s="129"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="122"/>
-      <c r="R16" s="123"/>
-    </row>
-    <row r="17" spans="1:18" s="25" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="51"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="120"/>
-      <c r="R17" s="120"/>
-    </row>
-    <row r="18" spans="1:18" s="25" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A18" s="51"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="117"/>
-      <c r="M18" s="117"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="120"/>
-      <c r="R18" s="120"/>
-    </row>
-    <row r="19" spans="1:18" s="25" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A19" s="51"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="117"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="120"/>
-      <c r="R19" s="120"/>
-    </row>
-    <row r="20" spans="1:18" s="25" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A20" s="51"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="117"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="120"/>
-      <c r="R20" s="120"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="137"/>
+      <c r="Q16" s="138"/>
+      <c r="R16" s="139"/>
+    </row>
+    <row r="17" spans="1:18" s="21" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="75"/>
+    </row>
+    <row r="18" spans="1:18" s="21" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+    </row>
+    <row r="19" spans="1:18" s="21" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="75"/>
+    </row>
+    <row r="20" spans="1:18" s="21" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="75"/>
     </row>
     <row r="21" spans="1:18" ht="31.5" customHeight="1">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="117"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="121"/>
-      <c r="R21" s="121"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C3:R4"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q18:R18"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="Q20:R20"/>
@@ -3247,41 +3502,12 @@
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q18:R18"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="L16:M16"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="C3:R4"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/G2A223長谷川沙羅/設計書/テーブル定義書.xlsx
+++ b/G2A223長谷川沙羅/設計書/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s20217003\Documents\HCSSportsForm\G2A223長谷川沙羅\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0491E7A9-2B73-4344-BC8D-0F2D3D32AA5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBDF56C-9403-434A-A006-5A5844F63B57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9828" yWindow="0" windowWidth="10548" windowHeight="8760" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9828" yWindow="0" windowWidth="10548" windowHeight="8760" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="117" r:id="rId1"/>
@@ -1516,7 +1516,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1642,34 +1642,124 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="63" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="62" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="64" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="65" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1702,41 +1792,110 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1744,227 +1903,80 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="63" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="62" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="64" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="65" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2320,7 +2332,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F7" sqref="F7:G7"/>
     </sheetView>
   </sheetViews>
@@ -2338,40 +2350,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="141" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="60"/>
+      <c r="K1" s="90"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A2" s="140"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="142" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="61">
+      <c r="J2" s="91">
         <v>44859</v>
       </c>
-      <c r="K2" s="62"/>
+      <c r="K2" s="92"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" customHeight="1">
       <c r="A3" s="3"/>
@@ -2395,31 +2407,31 @@
       <c r="S3" s="5"/>
     </row>
     <row r="4" spans="1:19" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A4" s="147" t="s">
+      <c r="A4" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="149" t="s">
+      <c r="D4" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="150"/>
-      <c r="F4" s="149" t="s">
+      <c r="E4" s="81"/>
+      <c r="F4" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="150"/>
-      <c r="H4" s="149" t="s">
+      <c r="G4" s="81"/>
+      <c r="H4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="150"/>
-      <c r="J4" s="149" t="s">
+      <c r="I4" s="81"/>
+      <c r="J4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="150"/>
+      <c r="K4" s="81"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -2429,27 +2441,27 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="22.5" customHeight="1" thickTop="1">
-      <c r="A5" s="143">
+      <c r="A5" s="64">
         <v>1</v>
       </c>
-      <c r="B5" s="144">
+      <c r="B5" s="65">
         <v>44859</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="145" t="s">
+      <c r="D5" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145" t="s">
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="145"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
     </row>
     <row r="6" spans="1:19" ht="28.8" customHeight="1">
       <c r="A6" s="25">
@@ -2461,20 +2473,20 @@
       <c r="C6" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52" t="s">
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="51" t="s">
+      <c r="I6" s="68"/>
+      <c r="J6" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="51"/>
+      <c r="K6" s="69"/>
     </row>
     <row r="7" spans="1:19" ht="76.2" customHeight="1">
       <c r="A7" s="25">
@@ -2486,20 +2498,20 @@
       <c r="C7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="52" t="s">
+      <c r="E7" s="68"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="51" t="s">
+      <c r="I7" s="68"/>
+      <c r="J7" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="51"/>
+      <c r="K7" s="69"/>
     </row>
     <row r="8" spans="1:19" ht="22.5" customHeight="1">
       <c r="A8" s="25">
@@ -2507,14 +2519,14 @@
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="25"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
     </row>
     <row r="9" spans="1:19" ht="22.5" customHeight="1">
       <c r="A9" s="25">
@@ -2522,14 +2534,14 @@
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="25"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
     </row>
     <row r="10" spans="1:19" ht="22.5" customHeight="1">
       <c r="A10" s="25">
@@ -2537,14 +2549,14 @@
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="25"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
     </row>
     <row r="11" spans="1:19" ht="22.5" customHeight="1">
       <c r="A11" s="25">
@@ -2552,14 +2564,14 @@
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="25"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
     </row>
     <row r="12" spans="1:19" ht="22.5" customHeight="1">
       <c r="A12" s="25">
@@ -2567,14 +2579,14 @@
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="25"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
     </row>
     <row r="13" spans="1:19" ht="22.5" customHeight="1">
       <c r="A13" s="25">
@@ -2582,14 +2594,14 @@
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="25"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
     </row>
     <row r="14" spans="1:19" ht="22.5" customHeight="1">
       <c r="A14" s="25">
@@ -2597,14 +2609,14 @@
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
     </row>
     <row r="15" spans="1:19" ht="22.5" customHeight="1">
       <c r="A15" s="25">
@@ -2612,14 +2624,14 @@
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
     </row>
     <row r="16" spans="1:19" ht="22.5" customHeight="1">
       <c r="A16" s="25">
@@ -2627,14 +2639,14 @@
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
     </row>
     <row r="17" spans="1:11" ht="22.5" customHeight="1">
       <c r="A17" s="25">
@@ -2642,14 +2654,14 @@
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
     </row>
     <row r="18" spans="1:11" ht="22.5" customHeight="1">
       <c r="A18" s="25">
@@ -2657,14 +2669,14 @@
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
     </row>
     <row r="19" spans="1:11" ht="22.5" customHeight="1">
       <c r="A19" s="25">
@@ -2672,27 +2684,27 @@
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
     </row>
     <row r="20" spans="1:11" ht="22.5" customHeight="1">
       <c r="A20" s="30"/>
       <c r="B20" s="31"/>
       <c r="C20" s="33"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="72"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="77"/>
     </row>
     <row r="21" spans="1:11" ht="22.5" customHeight="1">
       <c r="C21" s="27"/>
@@ -2727,6 +2739,70 @@
     <row r="45" ht="22.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
@@ -2735,70 +2811,6 @@
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2811,8 +2823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11:R11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -2842,114 +2854,114 @@
         <v>21</v>
       </c>
       <c r="B1" s="96"/>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98" t="s">
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="99" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="100" t="s">
+      <c r="N1" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="100"/>
-      <c r="P1" s="101" t="s">
+      <c r="O1" s="106"/>
+      <c r="P1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="102">
+      <c r="Q1" s="100">
         <v>44865</v>
       </c>
-      <c r="R1" s="103"/>
+      <c r="R1" s="101"/>
     </row>
     <row r="2" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A2" s="104"/>
-      <c r="B2" s="90"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
       <c r="C2" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="93" t="s">
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
       <c r="M2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="94">
+      <c r="N2" s="107">
         <v>44865</v>
       </c>
-      <c r="O2" s="94"/>
+      <c r="O2" s="107"/>
       <c r="P2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="92">
+      <c r="Q2" s="103">
         <v>44953</v>
       </c>
-      <c r="R2" s="105"/>
+      <c r="R2" s="104"/>
     </row>
     <row r="3" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="88" t="s">
+      <c r="B3" s="111"/>
+      <c r="C3" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="107"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="117"/>
     </row>
     <row r="4" spans="1:18" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A4" s="108"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="111"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="119"/>
     </row>
     <row r="5" spans="1:18" ht="20.25" customHeight="1" thickBot="1">
       <c r="B5" s="10"/>
@@ -2959,327 +2971,327 @@
       <c r="N5" s="14"/>
     </row>
     <row r="6" spans="1:18" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="113" t="s">
+      <c r="D6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="114" t="s">
+      <c r="E6" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="115"/>
-      <c r="G6" s="116" t="s">
+      <c r="F6" s="121"/>
+      <c r="G6" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="113" t="s">
+      <c r="H6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="116" t="s">
+      <c r="I6" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="113" t="s">
+      <c r="J6" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="116" t="s">
+      <c r="K6" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="117" t="s">
+      <c r="L6" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="118"/>
-      <c r="N6" s="113" t="s">
+      <c r="M6" s="115"/>
+      <c r="N6" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="113" t="s">
+      <c r="O6" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="119" t="s">
+      <c r="P6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="120" t="s">
+      <c r="Q6" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="R6" s="121"/>
+      <c r="R6" s="123"/>
     </row>
     <row r="7" spans="1:18" s="21" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
-      <c r="A7" s="122">
+      <c r="A7" s="135">
         <v>1</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="139">
         <v>8</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="140">
         <v>0</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16" t="s">
+      <c r="J7" s="138"/>
+      <c r="K7" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="80" t="s">
+      <c r="L7" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="81"/>
+      <c r="M7" s="142"/>
       <c r="N7" s="19" t="s">
         <v>76</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="20"/>
-      <c r="Q7" s="89" t="s">
+      <c r="Q7" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="R7" s="123"/>
+      <c r="R7" s="125"/>
     </row>
     <row r="8" spans="1:18" s="21" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A8" s="124">
+      <c r="A8" s="143">
         <v>2</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="139">
         <v>20</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="140">
         <v>0</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16" t="s">
+      <c r="J8" s="138"/>
+      <c r="K8" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="82" t="s">
+      <c r="L8" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="83"/>
+      <c r="M8" s="145"/>
       <c r="N8" s="19"/>
       <c r="O8" s="15"/>
       <c r="P8" s="20"/>
-      <c r="Q8" s="77" t="s">
+      <c r="Q8" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="R8" s="125"/>
+      <c r="R8" s="127"/>
     </row>
     <row r="9" spans="1:18" s="21" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A9" s="126">
+      <c r="A9" s="146">
         <v>3</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="139">
         <v>20</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="140">
         <v>0</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16" t="s">
+      <c r="J9" s="138"/>
+      <c r="K9" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="86" t="s">
+      <c r="L9" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="87"/>
+      <c r="M9" s="148"/>
       <c r="N9" s="19"/>
       <c r="O9" s="15"/>
       <c r="P9" s="20"/>
-      <c r="Q9" s="77" t="s">
+      <c r="Q9" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="R9" s="125"/>
+      <c r="R9" s="127"/>
     </row>
     <row r="10" spans="1:18" s="21" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A10" s="126">
+      <c r="A10" s="146">
         <v>4</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="139">
         <v>11</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="140">
         <v>0</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16" t="s">
+      <c r="J10" s="138"/>
+      <c r="K10" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="L10" s="82" t="s">
+      <c r="L10" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="83"/>
+      <c r="M10" s="145"/>
       <c r="N10" s="19"/>
       <c r="O10" s="15"/>
       <c r="P10" s="20"/>
-      <c r="Q10" s="77" t="s">
+      <c r="Q10" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="125"/>
+      <c r="R10" s="127"/>
     </row>
     <row r="11" spans="1:18" s="21" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A11" s="126">
+      <c r="A11" s="146">
         <v>5</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="139">
         <v>100</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="140">
         <v>0</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16" t="s">
+      <c r="J11" s="138"/>
+      <c r="K11" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="L11" s="82" t="s">
+      <c r="L11" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="M11" s="83"/>
+      <c r="M11" s="145"/>
       <c r="N11" s="19"/>
       <c r="O11" s="15"/>
       <c r="P11" s="20"/>
-      <c r="Q11" s="77" t="s">
+      <c r="Q11" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="R11" s="125"/>
+      <c r="R11" s="127"/>
     </row>
     <row r="12" spans="1:18" s="21" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A12" s="126">
+      <c r="A12" s="146">
         <v>6</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="150">
         <v>20</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="150">
         <v>0</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H12" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="47" t="s">
+      <c r="I12" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48" t="s">
+      <c r="J12" s="152"/>
+      <c r="K12" s="152" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="73" t="s">
+      <c r="L12" s="153" t="s">
         <v>65</v>
       </c>
-      <c r="M12" s="74"/>
+      <c r="M12" s="154"/>
       <c r="N12" s="19"/>
       <c r="O12" s="15"/>
       <c r="P12" s="20"/>
-      <c r="Q12" s="77" t="s">
+      <c r="Q12" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="R12" s="125"/>
+      <c r="R12" s="127"/>
     </row>
     <row r="13" spans="1:18" s="21" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A13" s="126">
+      <c r="A13" s="52">
         <v>7</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -3288,20 +3300,20 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="85"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="109"/>
       <c r="N13" s="22"/>
       <c r="O13" s="15"/>
       <c r="P13" s="20"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="125"/>
+      <c r="Q13" s="126"/>
+      <c r="R13" s="127"/>
     </row>
     <row r="14" spans="1:18" s="21" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A14" s="126">
+      <c r="A14" s="52">
         <v>8</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
       <c r="F14" s="18"/>
@@ -3310,20 +3322,20 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="85"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="109"/>
       <c r="N14" s="22"/>
       <c r="O14" s="15"/>
       <c r="P14" s="20"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="125"/>
+      <c r="Q14" s="126"/>
+      <c r="R14" s="127"/>
     </row>
     <row r="15" spans="1:18" s="21" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A15" s="126">
+      <c r="A15" s="52">
         <v>9</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
@@ -3332,35 +3344,35 @@
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="85"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="109"/>
       <c r="N15" s="22"/>
       <c r="O15" s="15"/>
       <c r="P15" s="20"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="125"/>
+      <c r="Q15" s="126"/>
+      <c r="R15" s="127"/>
     </row>
     <row r="16" spans="1:18" s="21" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A16" s="127">
+      <c r="A16" s="53">
         <v>10</v>
       </c>
-      <c r="B16" s="128"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
       <c r="L16" s="133"/>
       <c r="M16" s="134"/>
-      <c r="N16" s="135"/>
-      <c r="O16" s="136"/>
-      <c r="P16" s="137"/>
-      <c r="Q16" s="138"/>
-      <c r="R16" s="139"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="130"/>
+      <c r="R16" s="131"/>
     </row>
     <row r="17" spans="1:18" s="21" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="36"/>
@@ -3374,13 +3386,13 @@
       <c r="I17" s="39"/>
       <c r="J17" s="38"/>
       <c r="K17" s="39"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
       <c r="N17" s="38"/>
       <c r="O17" s="38"/>
       <c r="P17" s="41"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="75"/>
+      <c r="Q17" s="128"/>
+      <c r="R17" s="128"/>
     </row>
     <row r="18" spans="1:18" s="21" customFormat="1" ht="31.5" customHeight="1">
       <c r="A18" s="36"/>
@@ -3394,13 +3406,13 @@
       <c r="I18" s="39"/>
       <c r="J18" s="38"/>
       <c r="K18" s="39"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
       <c r="N18" s="38"/>
       <c r="O18" s="38"/>
       <c r="P18" s="41"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75"/>
+      <c r="Q18" s="128"/>
+      <c r="R18" s="128"/>
     </row>
     <row r="19" spans="1:18" s="21" customFormat="1" ht="31.5" customHeight="1">
       <c r="A19" s="36"/>
@@ -3414,13 +3426,13 @@
       <c r="I19" s="39"/>
       <c r="J19" s="38"/>
       <c r="K19" s="39"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
       <c r="N19" s="38"/>
       <c r="O19" s="38"/>
       <c r="P19" s="41"/>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="75"/>
+      <c r="Q19" s="128"/>
+      <c r="R19" s="128"/>
     </row>
     <row r="20" spans="1:18" s="21" customFormat="1" ht="31.5" customHeight="1">
       <c r="A20" s="36"/>
@@ -3434,13 +3446,13 @@
       <c r="I20" s="39"/>
       <c r="J20" s="38"/>
       <c r="K20" s="39"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
       <c r="N20" s="38"/>
       <c r="O20" s="38"/>
       <c r="P20" s="41"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="75"/>
+      <c r="Q20" s="128"/>
+      <c r="R20" s="128"/>
     </row>
     <row r="21" spans="1:18" ht="31.5" customHeight="1">
       <c r="A21" s="36"/>
@@ -3454,30 +3466,34 @@
       <c r="I21" s="39"/>
       <c r="J21" s="38"/>
       <c r="K21" s="39"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
       <c r="N21" s="38"/>
       <c r="O21" s="38"/>
       <c r="P21" s="41"/>
-      <c r="Q21" s="76"/>
-      <c r="R21" s="76"/>
+      <c r="Q21" s="129"/>
+      <c r="R21" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
@@ -3490,24 +3506,20 @@
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
